--- a/Entregas/Entrega 2/Informe/Anexos/Diccionario Datos.xlsx
+++ b/Entregas/Entrega 2/Informe/Anexos/Diccionario Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/Bigdata-CienciadeDatos/Documentos compartidos/General/Ciencia de Datos/Proyecto Final/Anexos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/Bigdata-CienciadeDatos/Documentos compartidos/General/Ciencia de Datos/Proyecto Final/Informe/Anexos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="11_CE79D3542D9BC5879ACD095D38F4F5A8FA224F7C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52938F00-5E99-460C-86CC-0A01F5585791}"/>
+  <xr:revisionPtr revIDLastSave="310" documentId="11_CE79D3542D9BC5879ACD095D38F4F5A8FA224F7C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{368EF758-AF09-462E-A604-7F2D91E2A539}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descripciones" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Relation Institution" sheetId="2" r:id="rId3"/>
     <sheet name="Seat" sheetId="3" r:id="rId4"/>
     <sheet name="Stay Wishes" sheetId="4" r:id="rId5"/>
+    <sheet name="Courses" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="132">
   <si>
     <t>Atributo</t>
   </si>
@@ -37,33 +38,15 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>Nombre de la institución</t>
-  </si>
-  <si>
     <t>Campo de texto introducido por los gestores de relaciones externas de la dirección</t>
   </si>
   <si>
-    <t>Ciudad</t>
-  </si>
-  <si>
-    <t>País</t>
-  </si>
-  <si>
-    <t> Nombre de la institución</t>
-  </si>
-  <si>
     <t>Institution ID</t>
   </si>
   <si>
     <t>Campo numérico entero generado automáticamente al crear una nueva institución</t>
   </si>
   <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Campo de texto introducido por los gestores de relaciones externas de la dirección que describe el nombre de la oportunidad de intercambio o convenios</t>
-  </si>
-  <si>
     <t>Relation ID</t>
   </si>
   <si>
@@ -94,9 +77,6 @@
     <t>Nivel académico por el cual se puede realizar el intercambio. (Undergraduate, Máster o PhD)</t>
   </si>
   <si>
-    <t>External institution</t>
-  </si>
-  <si>
     <t>ID de la institución con la cual se realiza el intercambio por medio de la oportunidad de intercambio</t>
   </si>
   <si>
@@ -160,24 +140,12 @@
     <t>Relation: parent relation</t>
   </si>
   <si>
-    <t>Nombre del convenio a la cual pertenece la Stay Opportunity</t>
-  </si>
-  <si>
-    <t>Stay Wish ID</t>
-  </si>
-  <si>
     <t>Identificador numérico entero de la postulación a una universidad especifica. </t>
   </si>
   <si>
-    <t>Stay ID</t>
-  </si>
-  <si>
     <t>Identificador numérico entero del intercambio al cual la postulación está vinculada </t>
   </si>
   <si>
-    <t>Person ID</t>
-  </si>
-  <si>
     <t>Identificador numérico entero de la persona que realizo la postulación generada por MoveON de manera automática.  </t>
   </si>
   <si>
@@ -211,25 +179,159 @@
     <t>Status offer</t>
   </si>
   <si>
-    <t>Degree program</t>
-  </si>
-  <si>
     <t>Programa académico del estudiante por el cual se postuló.</t>
   </si>
   <si>
-    <t>Stay status</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
     <t>País al cual el estudiante se está postulando </t>
   </si>
   <si>
-    <t>Institución</t>
-  </si>
-  <si>
     <t>Institución externa al cual el estudiante se está postulando. </t>
+  </si>
+  <si>
+    <t>Estado de la relación, puede tomar alguno de los siguientes valores:
+- Active: la oportunidad de intercambio se encuentra abierta en una convocatoria. 
+- Silent: la oportunidad de intercambio se encuentra disponible pero no está siendo usada en una convocatoria en este momento. 
+- Terminated o Cancelled: la oportunidad de intercambio ya no puede ser utilizada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado en el cual se encuentra la postulación, puede tomar alguno de los siguientes valores:
+- Pending: Estado inicial en el cual no se ha tomado ninguna decisión sobre la postulación.
+- Selected: una vez se han revisado las postulaciones, si se le otorga el cupo al estudiante en una institución especifica se le da este estado a la postulación en la cual se le otorgo el cupo. Solo 1 de las 3-6 postulaciones de un estudiante en una convocatoria dada pude tener este estado.
+- Rejected: estado que se le otorga a las postulaciones rechazadas por el equipo de movilidad de la universidad. 
+- Cancelled: estado que se le otorga a una postulación si el estudiante decide cancelar el cupo antes de iniciar el intercambio. 
+- Status Offer: estado el cual establece si el estudiante acepto el cupo otorgado en una postulación: </t>
+  </si>
+  <si>
+    <t>Estado en el cual establece si el estudiante acepto el cupo otorgado en una postulación, puede tomar alguno de los siguientes valores:
+- Make Offer: se está esperando a que el estudiante responda. 
+- No offer: el estudiante fue rechazado por la universidad de los andes. 
+- Offer rejected: el estudiante rechazo el cupo. 
+- Offer acepted: el estudiante acepto el cupo y se formaliza el intercambio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultado final del intercambio, puede tomar alguno de los siguientes valores:
+- Completed: el estudiante realizo el intercambio y lo finalizo exitosamente. 
+- Cancelled: el estudiante cancelo el intercambio. 
+- Not Accepted: el estudiante fue rechazado. 
+- Interrupted: el estudiante interrumpió el intercambio mientras se encontraba de viaje. 
+- Planned: el estudiante formalizo el intercambio y está esperando a que inicie. </t>
+  </si>
+  <si>
+    <t>Institution</t>
+  </si>
+  <si>
+    <t>Relation Institution</t>
+  </si>
+  <si>
+    <t>Seat</t>
+  </si>
+  <si>
+    <t>Stay Wish</t>
+  </si>
+  <si>
+    <t>Registro de relación entre las instituciones, caracterización y tipos</t>
+  </si>
+  <si>
+    <t>Cupos aperturados semestralmente</t>
+  </si>
+  <si>
+    <t>Postulaciones para intercambios salientes desde 201820 a 202310</t>
+  </si>
+  <si>
+    <t>Total Registros</t>
+  </si>
+  <si>
+    <t>Conjunto</t>
+  </si>
+  <si>
+    <t>Registro de las instituciones, de las cuales 2008 son externas</t>
+  </si>
+  <si>
+    <t>Nombre del convenio a la cual pertenece el stay wish</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Region 1</t>
+  </si>
+  <si>
+    <t>Region 2</t>
+  </si>
+  <si>
+    <t>Continent</t>
+  </si>
+  <si>
+    <t>Institution Type</t>
+  </si>
+  <si>
+    <t>Official Language</t>
+  </si>
+  <si>
+    <t>Language requirement 1</t>
+  </si>
+  <si>
+    <t>Language cerf score 1</t>
+  </si>
+  <si>
+    <t>Language requirement 2</t>
+  </si>
+  <si>
+    <t>Language cerf score 2</t>
+  </si>
+  <si>
+    <t>Language requirement 3</t>
+  </si>
+  <si>
+    <t>Language cerf score 3</t>
+  </si>
+  <si>
+    <t>Minimum GPA/4</t>
+  </si>
+  <si>
+    <t>Campo de texto asociado al primer requerimiento de idioma para ingreso</t>
+  </si>
+  <si>
+    <t>Campo de texto asociado al segundo requerimiento de idioma para ingreso</t>
+  </si>
+  <si>
+    <t>Campo de texto asociado al tercer requerimiento de idioma para ingreso</t>
+  </si>
+  <si>
+    <t>Campo de texto asociado al puntaje del primer requerimiento de idioma para ingreso</t>
+  </si>
+  <si>
+    <t>Campo de texto asociado al puntaje del segundo requerimiento de idioma para ingreso</t>
+  </si>
+  <si>
+    <t>Campo de texto asociado al puntaje del tercer requerimiento de idioma para ingreso</t>
+  </si>
+  <si>
+    <t>Campo númerico asociado al promedio académico para optar al ingreso. El rango corresponde entre cero y cuatro</t>
+  </si>
+  <si>
+    <t>Campo de texto asociado idioma oficial de la institución</t>
+  </si>
+  <si>
+    <t>Campo de texto asociado al tipo de institución académica</t>
+  </si>
+  <si>
+    <t>Campo de texto asociado continente de la institución académica</t>
+  </si>
+  <si>
+    <t>Campo de texto asociado a la sub-división de la información del continente</t>
+  </si>
+  <si>
+    <t>Campo de texto asociado a la sub-división No.2 de la información del continente</t>
+  </si>
+  <si>
+    <t>Courses</t>
   </si>
   <si>
     <r>
@@ -238,79 +340,129 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Atributo</t>
     </r>
   </si>
   <si>
-    <t>Estado de la relación, puede tomar alguno de los siguientes valores:
-- Active: la oportunidad de intercambio se encuentra abierta en una convocatoria. 
-- Silent: la oportunidad de intercambio se encuentra disponible pero no está siendo usada en una convocatoria en este momento. 
-- Terminated o Cancelled: la oportunidad de intercambio ya no puede ser utilizada.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estado en el cual se encuentra la postulación, puede tomar alguno de los siguientes valores:
-- Pending: Estado inicial en el cual no se ha tomado ninguna decisión sobre la postulación.
-- Selected: una vez se han revisado las postulaciones, si se le otorga el cupo al estudiante en una institución especifica se le da este estado a la postulación en la cual se le otorgo el cupo. Solo 1 de las 3-6 postulaciones de un estudiante en una convocatoria dada pude tener este estado.
-- Rejected: estado que se le otorga a las postulaciones rechazadas por el equipo de movilidad de la universidad. 
-- Cancelled: estado que se le otorga a una postulación si el estudiante decide cancelar el cupo antes de iniciar el intercambio. 
-- Status Offer: estado el cual establece si el estudiante acepto el cupo otorgado en una postulación: </t>
-  </si>
-  <si>
-    <t>Estado en el cual establece si el estudiante acepto el cupo otorgado en una postulación, puede tomar alguno de los siguientes valores:
-- Make Offer: se está esperando a que el estudiante responda. 
-- No offer: el estudiante fue rechazado por la universidad de los andes. 
-- Offer rejected: el estudiante rechazo el cupo. 
-- Offer acepted: el estudiante acepto el cupo y se formaliza el intercambio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultado final del intercambio, puede tomar alguno de los siguientes valores:
-- Completed: el estudiante realizo el intercambio y lo finalizo exitosamente. 
-- Cancelled: el estudiante cancelo el intercambio. 
-- Not Accepted: el estudiante fue rechazado. 
-- Interrupted: el estudiante interrumpió el intercambio mientras se encontraba de viaje. 
-- Planned: el estudiante formalizo el intercambio y está esperando a que inicie. </t>
-  </si>
-  <si>
-    <t>Institution</t>
-  </si>
-  <si>
-    <t>Relation Institution</t>
-  </si>
-  <si>
-    <t>Seat</t>
-  </si>
-  <si>
-    <t>Stay Wish</t>
-  </si>
-  <si>
-    <t>Registro de relación entre las instituciones, caracterización y tipos</t>
-  </si>
-  <si>
-    <t>Cupos aperturados semestralmente</t>
-  </si>
-  <si>
-    <t>Postulaciones para intercambios salientes desde 201820 a 202310</t>
-  </si>
-  <si>
-    <t>Total Registros</t>
-  </si>
-  <si>
-    <t>Conjunto</t>
-  </si>
-  <si>
-    <t>Registro de las instituciones, de las cuales 2008 son externas</t>
+    <t>External institutions</t>
+  </si>
+  <si>
+    <t>Main External Institutions</t>
+  </si>
+  <si>
+    <t>Frameworks</t>
+  </si>
+  <si>
+    <t>No idea</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>Relation Content</t>
+  </si>
+  <si>
+    <t>Las Renewal</t>
+  </si>
+  <si>
+    <t>Campo asociado a la última fecha de renovación del convenio</t>
+  </si>
+  <si>
+    <t>Internal Institutions</t>
+  </si>
+  <si>
+    <t>Campo asociado a la fecha de inicio del convenio</t>
+  </si>
+  <si>
+    <t>Campo asociado a la fecha de fin del convenio</t>
+  </si>
+  <si>
+    <t>Main Internal Institutions</t>
+  </si>
+  <si>
+    <t>Stay wish: ID</t>
+  </si>
+  <si>
+    <t>Person: ID</t>
+  </si>
+  <si>
+    <t>Stay opportunity</t>
+  </si>
+  <si>
+    <t>Sub Institution</t>
+  </si>
+  <si>
+    <t>Duration periods</t>
+  </si>
+  <si>
+    <t>Stay: ID</t>
+  </si>
+  <si>
+    <t>Person: Sub institution</t>
+  </si>
+  <si>
+    <t>Relation: Direction</t>
+  </si>
+  <si>
+    <t>Relation: Level</t>
+  </si>
+  <si>
+    <t>Stay: Status</t>
+  </si>
+  <si>
+    <t>Stay: Degree programme</t>
+  </si>
+  <si>
+    <t>Relation: Reach</t>
+  </si>
+  <si>
+    <t>Relation: ID</t>
+  </si>
+  <si>
+    <t>Relation: External institutions</t>
+  </si>
+  <si>
+    <t>Relation: Parent relation</t>
+  </si>
+  <si>
+    <t>Relation: Name</t>
+  </si>
+  <si>
+    <t>Academic period</t>
+  </si>
+  <si>
+    <t>Remaining seats</t>
+  </si>
+  <si>
+    <t>Total duration</t>
+  </si>
+  <si>
+    <t>Time unit</t>
+  </si>
+  <si>
+    <t>Relation: Relation ID</t>
+  </si>
+  <si>
+    <t>Relation: Internal institutions</t>
+  </si>
+  <si>
+    <t>Programas académicos de las instituciones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,54 +471,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="7"/>
-      <color rgb="FF343637"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="7"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF343637"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Cailibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF343637"/>
+      <name val="Cailibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF343637"/>
+      <name val="Cailibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cailibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF343637"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF343637"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF343637"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -392,39 +543,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -434,27 +554,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -473,11 +629,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="7"/>
+        <sz val="11"/>
         <color rgb="FF343637"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -488,6 +644,17 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -506,11 +673,143 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="7"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF343637"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -531,11 +830,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF343637"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -556,11 +855,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF343637"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -571,24 +870,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FF4472C4"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF8EAADB"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -598,11 +889,42 @@
       </fill>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF4472C4"/>
-        </bottom>
-      </border>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -615,11 +937,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
+        <sz val="11"/>
+        <color rgb="FF343637"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -627,7 +949,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -636,7 +958,9 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="11"/>
+        <name val="Cailibri"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -656,150 +980,9 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF343637"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FF4472C4"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF8EAADB"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF4472C4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FF4472C4"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF8EAADB"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF4472C4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
+        <name val="Cailibri"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -809,6 +992,108 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Cailibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Cailibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF4472C4"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF8EAADB"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF4472C4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF4472C4"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF8EAADB"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF4472C4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF4472C4"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF8EAADB"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF4472C4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -823,57 +1108,78 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C9A9E250-A305-4761-9458-9F701CF9B9CB}" name="Table5" displayName="Table5" ref="A1:C5" totalsRowShown="0" headerRowDxfId="4" dataDxfId="0">
-  <autoFilter ref="A1:C5" xr:uid="{C9A9E250-A305-4761-9458-9F701CF9B9CB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C9A9E250-A305-4761-9458-9F701CF9B9CB}" name="Table5" displayName="Table5" ref="A1:C6" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A1:C6" xr:uid="{C9A9E250-A305-4761-9458-9F701CF9B9CB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{27760A32-3EE9-490F-8889-376D74029C22}" name="Conjunto" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{E5A54E1F-A128-40EE-8719-C19520D3D959}" name="Descripción" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{AB5C99C7-8C05-4625-8225-534247A68319}" name="Total Registros" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{27760A32-3EE9-490F-8889-376D74029C22}" name="Conjunto" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{E5A54E1F-A128-40EE-8719-C19520D3D959}" name="Descripción" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{AB5C99C7-8C05-4625-8225-534247A68319}" name="Total Registros" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{219C2E73-F08A-407C-800A-BE7496485C6A}" name="InstitutionTable" displayName="InstitutionTable" ref="A1:B4" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23">
-  <autoFilter ref="A1:B4" xr:uid="{219C2E73-F08A-407C-800A-BE7496485C6A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{219C2E73-F08A-407C-800A-BE7496485C6A}" name="InstitutionTable" displayName="InstitutionTable" ref="A1:B17" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="25" tableBorderDxfId="24">
+  <autoFilter ref="A1:B17" xr:uid="{219C2E73-F08A-407C-800A-BE7496485C6A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{377498A8-95D6-4FE4-B3C7-0247E3575BE0}" name="Atributo" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{6E88A4FE-A151-482B-94BC-7D09C035E23A}" name="Descripción" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{377498A8-95D6-4FE4-B3C7-0247E3575BE0}" name="Atributo" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{6E88A4FE-A151-482B-94BC-7D09C035E23A}" name="Descripción" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F0395E4C-A43B-4ADF-B04B-9D7D5F86D417}" name="RelationInstitutionTable" displayName="RelationInstitutionTable" ref="A1:B15" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
-  <autoFilter ref="A1:B15" xr:uid="{F0395E4C-A43B-4ADF-B04B-9D7D5F86D417}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F0395E4C-A43B-4ADF-B04B-9D7D5F86D417}" name="RelationInstitutionTable" displayName="RelationInstitutionTable" ref="A1:B19" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="23" tableBorderDxfId="22">
+  <autoFilter ref="A1:B19" xr:uid="{F0395E4C-A43B-4ADF-B04B-9D7D5F86D417}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{85CFFE88-CD5B-4951-9909-FA8B0696B25A}" name=" Atributo" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{E0409611-BC7F-453D-A712-DC7A70B4A6BC}" name="Descripción" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{85CFFE88-CD5B-4951-9909-FA8B0696B25A}" name=" Atributo" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{E0409611-BC7F-453D-A712-DC7A70B4A6BC}" name="Descripción" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{42138A07-7E3E-40DB-A71A-38C67CB74FFF}" name="SeatTable" displayName="SeatTable" ref="A1:B9" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{42138A07-7E3E-40DB-A71A-38C67CB74FFF}" name="SeatTable" displayName="SeatTable" ref="A1:B9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="21" tableBorderDxfId="20">
   <autoFilter ref="A1:B9" xr:uid="{42138A07-7E3E-40DB-A71A-38C67CB74FFF}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{86F5497E-3BB3-4F35-989B-D9093DE43777}" name="Atributo" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{35F29D2E-9F6F-4A50-82B1-3369CE3B73E2}" name="Descripción" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{86F5497E-3BB3-4F35-989B-D9093DE43777}" name="Atributo" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{35F29D2E-9F6F-4A50-82B1-3369CE3B73E2}" name="Descripción" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8B5935FC-8829-491C-B036-6020B849A944}" name="StayWishTable" displayName="StayWishTable" ref="A1:B15" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:B15" xr:uid="{8B5935FC-8829-491C-B036-6020B849A944}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8B5935FC-8829-491C-B036-6020B849A944}" name="StayWishTable" displayName="StayWishTable" ref="A1:B24" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:B24" xr:uid="{8B5935FC-8829-491C-B036-6020B849A944}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B24">
+    <sortCondition ref="A1:A24"/>
+  </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{060F52CE-28BB-47BC-8A6F-04952D272FB3}" name="Atributo" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{17032B22-B351-410E-A135-9916550EF9A1}" name="Descripción" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{060F52CE-28BB-47BC-8A6F-04952D272FB3}" name="Atributo" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{17032B22-B351-410E-A135-9916550EF9A1}" name="Descripción" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{10496BB2-1412-4D68-90BB-0C06E2EE0477}" name="StayWishTable7" displayName="StayWishTable7" ref="A1:B16" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B16" xr:uid="{10496BB2-1412-4D68-90BB-0C06E2EE0477}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B2">
+    <sortCondition ref="A1:A2"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{4EB8758A-F38E-4F8A-966E-A67D5B950656}" name="Atributo" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{B9950D78-AD19-490B-9F75-B5ADEC9898DB}" name="Descripción" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1142,72 +1448,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7619CECB-E95C-4310-9B08-12A38F5A7662}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="40.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1">
         <v>4297</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="12">
+    <row r="3" spans="1:3" ht="30">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="1">
         <v>2008</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="12">
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="1">
         <v>2283</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="12">
+    <row r="5" spans="1:3" ht="30">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1">
         <v>8154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4557</v>
       </c>
     </row>
   </sheetData>
@@ -1221,48 +1538,152 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" ht="28.5">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.5">
+      <c r="A3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
+    </row>
+    <row r="4" spans="1:2" ht="28.5">
+      <c r="A4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.5">
+      <c r="A5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.5">
+      <c r="A6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.5">
+      <c r="A7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.5">
+      <c r="A8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.5">
+      <c r="A9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.5">
+      <c r="A11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.5">
+      <c r="A12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.5">
+      <c r="A13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="28.5">
+      <c r="A14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="28.5">
+      <c r="A15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="28.5">
+      <c r="A16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="42.75">
+      <c r="A17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1276,136 +1697,168 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC1E6F6-874E-46CA-A095-AE4F1332EFA3}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="30">
+      <c r="A3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="5" spans="1:2" ht="30">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="6" spans="1:2" ht="30">
+      <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B6" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="135">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1422,85 +1875,85 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" ht="30">
+      <c r="A2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>43</v>
+      <c r="B9" s="11" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1514,136 +1967,208 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336FF60C-E9C8-4379-9BC2-16A5E2A66F1F}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="105" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="120">
+      <c r="A11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B16" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    <row r="17" spans="1:2" ht="150">
+      <c r="A17" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="255">
+      <c r="A18" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="B18" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="150">
+      <c r="A20" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="54" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="54" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>66</v>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1655,7 +2180,136 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F34DB7F-2A0B-4A59-8F41-994609FA411C}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="16"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="16"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="16"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="16"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="16"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="16"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="16"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="16"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="16"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="16"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="16"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010082C1AF70B92FE6459E732DBB469914C0" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="35431e3451ff8b150cda1be36ca1b078">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fdba8e9b-db98-43e3-b4b2-aaa4da53c7c2" xmlns:ns3="59b4841d-b385-45c2-a489-95aed2f186a4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1c4614605d5e5b2ef4d6843b625730dc" ns2:_="" ns3:_="">
     <xsd:import namespace="fdba8e9b-db98-43e3-b4b2-aaa4da53c7c2"/>
@@ -1832,16 +2486,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{424959A9-3A0C-44DE-B174-D136FC2055CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A47251D-4A3B-4A7F-8525-F29F72001620}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1858,12 +2511,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{424959A9-3A0C-44DE-B174-D136FC2055CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>